--- a/テスト仕様書/結合テスト仕様書.xlsx
+++ b/テスト仕様書/結合テスト仕様書.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="11835" windowHeight="12315"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="11835" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス" sheetId="1" r:id="rId1"/>
-    <sheet name="case" sheetId="2" r:id="rId2"/>
+    <sheet name="ケース一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -117,30 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1つ登録</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ登録</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Max値登録</t>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1人登録</t>
     <rPh sb="1" eb="2">
       <t>ヒト</t>
@@ -333,172 +309,704 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>候補日1つ</t>
+    <t>・~/event/answerRegist?Url=[登録されていない文字列]で出欠回答画面にアクセス</t>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・~/event/answerAttenｄ?Url=[登録されていないランダム値]で出欠参照画面にアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常に画面遷移される</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常/異常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認項目</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施方法</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日を1行登録</t>
     <rPh sb="0" eb="2">
       <t>コウホ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>候補日2つ</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日を2行登録</t>
     <rPh sb="0" eb="2">
       <t>コウホ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>候補日Max</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日を最大行登録</t>
     <rPh sb="0" eb="2">
       <t>コウホ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case1：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case2：</t>
-  </si>
-  <si>
-    <t>case2：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case3：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case1：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答者1人</t>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答者を1人登録</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答者2人</t>
+    <rPh sb="4" eb="6">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答者を2人登録</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・入力</t>
-    <rPh sb="1" eb="3">
+    <rPh sb="4" eb="6">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答登録</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録画面で候補日をyyyy/MM/dd hh:mm形式で1行登録する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録画面で候補日をyyyy/MM/dd hh:mm形式で2行登録する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答画面で回答者を1人登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答画面で回答者を2人登録する</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~/event/answerRegist?Url=[登録されていない文字列]を直入力して画面遷移する</t>
+    <rPh sb="39" eb="40">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・出力</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■正常</t>
-    <rPh sb="1" eb="3">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■異常</t>
-    <rPh sb="1" eb="3">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・~/event/answerRegist?Url=[登録されていない文字列]で出欠回答画面にアクセス</t>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュッケツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カイトウ</t>
     </rPh>
     <rPh sb="44" eb="46">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・~/event/answerAttenｄ?Url=[登録されていないランダム値]で出欠参照画面にアクセス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■エビデンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・DBのdmp(caseの前と後)</t>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・caseの実行ログ</t>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~/event/answerAttenｄ?Url=[登録されていないランダム値]を直入力して画面遷移する</t>
+    <rPh sb="41" eb="42">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>候補日が正常に登録できること
+参照画面で正常に表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答が正常に登録できること
+出欠参照画面で正常に表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答が正常に登録できること
+複数登録した回答者の情報が出欠参照画面で正常に表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面に遷移されること</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・caseの画面キャプチャ</t>
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>255字登録</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024字登録</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd hh:mm形式で1行登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd hh:mm形式で2行登録</t>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd hh:mm形式で57行登録</t>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録画面で候補日をyyyy/MM/dd hh:mm形式で57行登録する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正常に画面遷移される</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="9" eb="11">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57行(Max値)登録した候補日が正常に登録できること
+57行登録した候補日が参照画面で全て正常に表示されていること</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>セイジョウ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="44" eb="45">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2行登録した候補日が正常に登録できること
+2行登録した候補日が参照画面で全て正常に表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ニギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントが正常に登録される</t>
     <rPh sb="5" eb="7">
-      <t>センイ</t>
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠回答が正常に登録される</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント登録結果画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常にイベントURLが生成される</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,7 +1047,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +1072,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -640,17 +1154,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -736,13 +1239,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,49 +1501,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -806,53 +1519,176 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,9 +1991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P28"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1167,241 +2005,242 @@
     <col min="6" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1409,21 +2248,21 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1431,24 +2270,24 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1457,216 +2296,225 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>30</v>
+      <c r="K16" s="45" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="46"/>
+      <c r="B19" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="46"/>
+      <c r="B20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+    <row r="24" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+    <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="41"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+    <row r="26" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1701,23 +2549,68 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B18:C19"/>
+  <mergeCells count="20">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C22"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="B16:C17"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
   </mergeCells>
@@ -1729,106 +2622,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="31"/>
-    <col min="3" max="3" width="10.25" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="31" t="s">
+      <c r="D6" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="C7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="31" t="s">
-        <v>53</v>
-      </c>
+      <c r="E7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S12" s="17"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト仕様書/結合テスト仕様書.xlsx
+++ b/テスト仕様書/結合テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="11835" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="11835" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1543,112 +1543,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,6 +1602,93 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,9 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2007,31 +2005,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2050,16 +2048,16 @@
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2075,12 +2073,12 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
@@ -2092,12 +2090,12 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="41"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2111,12 +2109,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
@@ -2128,12 +2126,12 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
@@ -2145,12 +2143,12 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2164,12 +2162,12 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
@@ -2181,12 +2179,12 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
@@ -2198,10 +2196,10 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2219,14 +2217,14 @@
       <c r="J12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="41"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2240,7 +2238,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2248,9 +2246,9 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2270,7 +2268,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -2286,7 +2284,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="2"/>
@@ -2296,13 +2294,13 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
@@ -2314,14 +2312,14 @@
       <c r="J16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
@@ -2341,65 +2339,81 @@
         <v>27</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="47"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="47"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="47"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
@@ -2415,12 +2429,12 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="15" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="43"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2442,19 +2456,19 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="47"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2462,19 +2476,19 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2482,19 +2496,19 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="41"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2502,19 +2516,19 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2593,15 +2607,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C22"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="A16:A22"/>
@@ -2613,6 +2618,15 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -2640,165 +2654,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="31" t="s">
         <v>39</v>
       </c>
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="33" t="s">
         <v>58</v>
       </c>
       <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="33" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="34" t="s">
         <v>61</v>
       </c>
       <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="37" t="s">
         <v>61</v>
       </c>
     </row>
